--- a/search_keys.xlsx
+++ b/search_keys.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Повар холодного цеха.</t>
   </si>
@@ -184,13 +184,40 @@
   </si>
   <si>
     <t>Обивщики мягкой мебели</t>
+  </si>
+  <si>
+    <t>Количество вакансии</t>
+  </si>
+  <si>
+    <t>Дата от</t>
+  </si>
+  <si>
+    <t>Дата до</t>
+  </si>
+  <si>
+    <t>Ключи</t>
+  </si>
+  <si>
+    <t>Локоция</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Москва</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +248,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,11 +273,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -252,6 +302,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,295 +587,1045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D2" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44680</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D57" ca="1" si="0">TODAY()</f>
+        <v>44680</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44680</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/search_keys.xlsx
+++ b/search_keys.xlsx
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -307,6 +307,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -590,13 +594,13 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="7" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="4"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
@@ -605,7 +609,7 @@
       <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -624,15 +628,15 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>100</v>
+      <c r="B2" s="7">
+        <v>50</v>
       </c>
       <c r="C2" s="4">
         <v>43831</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
@@ -642,15 +646,15 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>100</v>
+      <c r="B3" s="7">
+        <v>50</v>
       </c>
       <c r="C3" s="4">
         <v>43831</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D57" ca="1" si="0">TODAY()</f>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -660,15 +664,15 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>100</v>
+      <c r="B4" s="7">
+        <v>50</v>
       </c>
       <c r="C4" s="4">
         <v>43831</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
@@ -678,15 +682,15 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>100</v>
+      <c r="B5" s="7">
+        <v>50</v>
       </c>
       <c r="C5" s="4">
         <v>43831</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
@@ -696,15 +700,15 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>100</v>
+      <c r="B6" s="7">
+        <v>50</v>
       </c>
       <c r="C6" s="4">
         <v>43831</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -714,15 +718,15 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>100</v>
+      <c r="B7" s="7">
+        <v>50</v>
       </c>
       <c r="C7" s="4">
         <v>43831</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
@@ -732,15 +736,15 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>100</v>
+      <c r="B8" s="7">
+        <v>50</v>
       </c>
       <c r="C8" s="4">
         <v>43831</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
@@ -750,15 +754,15 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>100</v>
+      <c r="B9" s="7">
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <v>43831</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -768,15 +772,15 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>100</v>
+      <c r="B10" s="7">
+        <v>50</v>
       </c>
       <c r="C10" s="4">
         <v>43831</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E10" t="s">
         <v>60</v>
@@ -786,15 +790,15 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>100</v>
+      <c r="B11" s="7">
+        <v>50</v>
       </c>
       <c r="C11" s="4">
         <v>43831</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
@@ -804,15 +808,15 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>100</v>
+      <c r="B12" s="7">
+        <v>50</v>
       </c>
       <c r="C12" s="4">
         <v>43831</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E12" t="s">
         <v>60</v>
@@ -822,15 +826,15 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>100</v>
+      <c r="B13" s="7">
+        <v>50</v>
       </c>
       <c r="C13" s="4">
         <v>43831</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
@@ -840,15 +844,15 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>100</v>
+      <c r="B14" s="7">
+        <v>50</v>
       </c>
       <c r="C14" s="4">
         <v>43831</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -858,15 +862,15 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>100</v>
+      <c r="B15" s="7">
+        <v>50</v>
       </c>
       <c r="C15" s="4">
         <v>43831</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -876,15 +880,15 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>100</v>
+      <c r="B16" s="7">
+        <v>50</v>
       </c>
       <c r="C16" s="4">
         <v>43831</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
@@ -894,15 +898,15 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>100</v>
+      <c r="B17" s="7">
+        <v>50</v>
       </c>
       <c r="C17" s="4">
         <v>43831</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E17" t="s">
         <v>60</v>
@@ -912,15 +916,15 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>100</v>
+      <c r="B18" s="7">
+        <v>50</v>
       </c>
       <c r="C18" s="4">
         <v>43831</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E18" t="s">
         <v>60</v>
@@ -930,15 +934,15 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>100</v>
+      <c r="B19" s="7">
+        <v>50</v>
       </c>
       <c r="C19" s="4">
         <v>43831</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -948,15 +952,15 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>100</v>
+      <c r="B20" s="7">
+        <v>50</v>
       </c>
       <c r="C20" s="4">
         <v>43831</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -966,15 +970,15 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>100</v>
+      <c r="B21" s="7">
+        <v>50</v>
       </c>
       <c r="C21" s="4">
         <v>43831</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -984,15 +988,15 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>100</v>
+      <c r="B22" s="7">
+        <v>50</v>
       </c>
       <c r="C22" s="4">
         <v>43831</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -1002,15 +1006,15 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>100</v>
+      <c r="B23" s="7">
+        <v>50</v>
       </c>
       <c r="C23" s="4">
         <v>43831</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
@@ -1020,15 +1024,15 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>100</v>
+      <c r="B24" s="7">
+        <v>50</v>
       </c>
       <c r="C24" s="4">
         <v>43831</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
@@ -1038,15 +1042,15 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>100</v>
+      <c r="B25" s="7">
+        <v>50</v>
       </c>
       <c r="C25" s="4">
         <v>43831</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E25" t="s">
         <v>60</v>
@@ -1056,15 +1060,15 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>100</v>
+      <c r="B26" s="7">
+        <v>50</v>
       </c>
       <c r="C26" s="4">
         <v>43831</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
@@ -1074,15 +1078,15 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>100</v>
+      <c r="B27" s="7">
+        <v>50</v>
       </c>
       <c r="C27" s="4">
         <v>43831</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E27" t="s">
         <v>60</v>
@@ -1092,15 +1096,15 @@
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>100</v>
+      <c r="B28" s="7">
+        <v>50</v>
       </c>
       <c r="C28" s="4">
         <v>43831</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E28" t="s">
         <v>60</v>
@@ -1110,15 +1114,15 @@
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>100</v>
+      <c r="B29" s="7">
+        <v>50</v>
       </c>
       <c r="C29" s="4">
         <v>43831</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
@@ -1128,15 +1132,15 @@
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>100</v>
+      <c r="B30" s="7">
+        <v>50</v>
       </c>
       <c r="C30" s="4">
         <v>43831</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E30" t="s">
         <v>60</v>
@@ -1146,15 +1150,15 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>100</v>
+      <c r="B31" s="7">
+        <v>50</v>
       </c>
       <c r="C31" s="4">
         <v>43831</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E31" t="s">
         <v>60</v>
@@ -1164,15 +1168,15 @@
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>100</v>
+      <c r="B32" s="7">
+        <v>50</v>
       </c>
       <c r="C32" s="4">
         <v>43831</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E32" t="s">
         <v>60</v>
@@ -1182,15 +1186,15 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>100</v>
+      <c r="B33" s="7">
+        <v>50</v>
       </c>
       <c r="C33" s="4">
         <v>43831</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E33" t="s">
         <v>60</v>
@@ -1200,15 +1204,15 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>100</v>
+      <c r="B34" s="7">
+        <v>50</v>
       </c>
       <c r="C34" s="4">
         <v>43831</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E34" t="s">
         <v>60</v>
@@ -1218,15 +1222,15 @@
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>100</v>
+      <c r="B35" s="7">
+        <v>50</v>
       </c>
       <c r="C35" s="4">
         <v>43831</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E35" t="s">
         <v>60</v>
@@ -1236,15 +1240,15 @@
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>100</v>
+      <c r="B36" s="7">
+        <v>50</v>
       </c>
       <c r="C36" s="4">
         <v>43831</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E36" t="s">
         <v>60</v>
@@ -1254,15 +1258,15 @@
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>100</v>
+      <c r="B37" s="7">
+        <v>50</v>
       </c>
       <c r="C37" s="4">
         <v>43831</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E37" t="s">
         <v>60</v>
@@ -1272,15 +1276,15 @@
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38">
-        <v>100</v>
+      <c r="B38" s="7">
+        <v>50</v>
       </c>
       <c r="C38" s="4">
         <v>43831</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -1290,15 +1294,15 @@
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39">
-        <v>100</v>
+      <c r="B39" s="7">
+        <v>50</v>
       </c>
       <c r="C39" s="4">
         <v>43831</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E39" t="s">
         <v>60</v>
@@ -1308,15 +1312,15 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40">
-        <v>100</v>
+      <c r="B40" s="7">
+        <v>50</v>
       </c>
       <c r="C40" s="4">
         <v>43831</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E40" t="s">
         <v>60</v>
@@ -1326,15 +1330,15 @@
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
-        <v>100</v>
+      <c r="B41" s="7">
+        <v>50</v>
       </c>
       <c r="C41" s="4">
         <v>43831</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E41" t="s">
         <v>60</v>
@@ -1344,15 +1348,15 @@
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42">
-        <v>100</v>
+      <c r="B42" s="7">
+        <v>50</v>
       </c>
       <c r="C42" s="4">
         <v>43831</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -1362,15 +1366,15 @@
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43">
-        <v>100</v>
+      <c r="B43" s="7">
+        <v>50</v>
       </c>
       <c r="C43" s="4">
         <v>43831</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E43" t="s">
         <v>60</v>
@@ -1380,15 +1384,15 @@
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44">
-        <v>100</v>
+      <c r="B44" s="7">
+        <v>50</v>
       </c>
       <c r="C44" s="4">
         <v>43831</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E44" t="s">
         <v>60</v>
@@ -1398,15 +1402,15 @@
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B45">
-        <v>100</v>
+      <c r="B45" s="7">
+        <v>50</v>
       </c>
       <c r="C45" s="4">
         <v>43831</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E45" t="s">
         <v>60</v>
@@ -1416,15 +1420,15 @@
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46">
-        <v>100</v>
+      <c r="B46" s="7">
+        <v>50</v>
       </c>
       <c r="C46" s="4">
         <v>43831</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E46" t="s">
         <v>60</v>
@@ -1434,15 +1438,15 @@
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47">
-        <v>100</v>
+      <c r="B47" s="7">
+        <v>50</v>
       </c>
       <c r="C47" s="4">
         <v>43831</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E47" t="s">
         <v>60</v>
@@ -1452,15 +1456,15 @@
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
-        <v>100</v>
+      <c r="B48" s="7">
+        <v>50</v>
       </c>
       <c r="C48" s="4">
         <v>43831</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E48" t="s">
         <v>60</v>
@@ -1470,15 +1474,15 @@
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49">
-        <v>100</v>
+      <c r="B49" s="7">
+        <v>50</v>
       </c>
       <c r="C49" s="4">
         <v>43831</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E49" t="s">
         <v>60</v>
@@ -1488,15 +1492,15 @@
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
-        <v>100</v>
+      <c r="B50" s="7">
+        <v>50</v>
       </c>
       <c r="C50" s="4">
         <v>43831</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E50" t="s">
         <v>60</v>
@@ -1506,15 +1510,15 @@
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51">
-        <v>100</v>
+      <c r="B51" s="7">
+        <v>50</v>
       </c>
       <c r="C51" s="4">
         <v>43831</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E51" t="s">
         <v>60</v>
@@ -1524,15 +1528,15 @@
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52">
-        <v>100</v>
+      <c r="B52" s="7">
+        <v>50</v>
       </c>
       <c r="C52" s="4">
         <v>43831</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E52" t="s">
         <v>60</v>
@@ -1542,15 +1546,15 @@
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53">
-        <v>100</v>
+      <c r="B53" s="7">
+        <v>50</v>
       </c>
       <c r="C53" s="4">
         <v>43831</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E53" t="s">
         <v>60</v>
@@ -1560,15 +1564,15 @@
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54">
-        <v>100</v>
+      <c r="B54" s="7">
+        <v>50</v>
       </c>
       <c r="C54" s="4">
         <v>43831</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -1578,15 +1582,15 @@
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55">
-        <v>100</v>
+      <c r="B55" s="7">
+        <v>50</v>
       </c>
       <c r="C55" s="4">
         <v>43831</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
@@ -1596,15 +1600,15 @@
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B56">
-        <v>100</v>
+      <c r="B56" s="7">
+        <v>50</v>
       </c>
       <c r="C56" s="4">
         <v>43831</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E56" t="s">
         <v>60</v>
@@ -1614,15 +1618,15 @@
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B57">
-        <v>100</v>
+      <c r="B57" s="7">
+        <v>50</v>
       </c>
       <c r="C57" s="4">
         <v>43831</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44682</v>
       </c>
       <c r="E57" t="s">
         <v>60</v>

--- a/search_keys.xlsx
+++ b/search_keys.xlsx
@@ -594,7 +594,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="D2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D57" ca="1" si="0">TODAY()</f>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -672,7 +672,7 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E10" t="s">
         <v>60</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E12" t="s">
         <v>60</v>
@@ -834,7 +834,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -870,7 +870,7 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -888,7 +888,7 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E17" t="s">
         <v>60</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E18" t="s">
         <v>60</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -978,7 +978,7 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E25" t="s">
         <v>60</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E27" t="s">
         <v>60</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E28" t="s">
         <v>60</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E30" t="s">
         <v>60</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E31" t="s">
         <v>60</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E32" t="s">
         <v>60</v>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E33" t="s">
         <v>60</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E34" t="s">
         <v>60</v>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E35" t="s">
         <v>60</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E36" t="s">
         <v>60</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E37" t="s">
         <v>60</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E39" t="s">
         <v>60</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E40" t="s">
         <v>60</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E41" t="s">
         <v>60</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E43" t="s">
         <v>60</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E44" t="s">
         <v>60</v>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E45" t="s">
         <v>60</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E46" t="s">
         <v>60</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E47" t="s">
         <v>60</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E48" t="s">
         <v>60</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E49" t="s">
         <v>60</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E50" t="s">
         <v>60</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E51" t="s">
         <v>60</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E52" t="s">
         <v>60</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E53" t="s">
         <v>60</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E56" t="s">
         <v>60</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44685</v>
       </c>
       <c r="E57" t="s">
         <v>60</v>
